--- a/RQ1_humhl_lml_thresholds/lml_humhl_input_data.xlsx
+++ b/RQ1_humhl_lml_thresholds/lml_humhl_input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliamalisani/Desktop/THESIS/Results0.15/RQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA40CCC-ED08-8E45-8AD4-3DFBD214A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074C0D2-6461-C94F-A3FC-F4F674ED012F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>total_area</t>
   </si>
   <si>
-    <t>Threshold</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>0.40</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E259" sqref="E182:E259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>53</v>
@@ -621,4195 +621,4195 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>642.27494835112725</v>
+        <v>17.37523192584716</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>0.1036987006664276</v>
+        <v>5.3147825673222542</v>
       </c>
       <c r="F2">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G65" si="0">2014-F2</f>
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>642.27494835112725</v>
+        <v>17.37523192584716</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>0.4700910747051239</v>
+        <v>10.345105685293669</v>
       </c>
       <c r="F3">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>642.27494835112725</v>
+        <v>17.37523192584716</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>490.53882671892637</v>
+        <v>11.806698627769951</v>
       </c>
       <c r="F4">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>642.27494835112725</v>
+        <v>17.37523192584716</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>535.08832779526711</v>
+        <v>11.806698627769951</v>
       </c>
       <c r="F5">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>642.27494835112725</v>
+        <v>17.37523192584716</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>613.34929003193974</v>
+        <v>15.413656152784821</v>
       </c>
       <c r="F6">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>642.27494835112725</v>
+        <v>17.37523192584716</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>640.84510542824864</v>
+        <v>15.96534047275782</v>
       </c>
       <c r="F7">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8">
-        <v>17.37523192584716</v>
+        <v>171.77813791701811</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>5.3147825673222542</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9">
-        <v>17.37523192584716</v>
+        <v>171.77813791701811</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>10.345105685293669</v>
+        <v>12.078869469463831</v>
       </c>
       <c r="F9">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10">
-        <v>17.37523192584716</v>
+        <v>171.77813791701811</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>11.806698627769951</v>
+        <v>13.436718709766859</v>
       </c>
       <c r="F10">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11">
-        <v>17.37523192584716</v>
+        <v>171.77813791701811</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>11.806698627769951</v>
+        <v>23.624442562460899</v>
       </c>
       <c r="F11">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>17.37523192584716</v>
+        <v>171.77813791701811</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>15.413656152784821</v>
+        <v>45.591782554984093</v>
       </c>
       <c r="F12">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13">
-        <v>17.37523192584716</v>
+        <v>171.77813791701811</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>15.96534047275782</v>
+        <v>78.229951671790332</v>
       </c>
       <c r="F13">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>272.80095749140207</v>
+        <v>140.84851992759931</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.03632990270853</v>
       </c>
       <c r="F14">
-        <v>778</v>
+        <v>1480</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>272.80095749140207</v>
+        <v>140.84851992759931</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>62.562358908355243</v>
       </c>
       <c r="F15">
-        <v>778</v>
+        <v>1480</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>272.80095749140207</v>
+        <v>140.84851992759931</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>33.915862396359437</v>
+        <v>74.390508405864239</v>
       </c>
       <c r="F16">
-        <v>778</v>
+        <v>1480</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>272.80095749140207</v>
+        <v>140.84851992759931</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>71.691342934966087</v>
+        <v>89.379796711727977</v>
       </c>
       <c r="F17">
-        <v>778</v>
+        <v>1480</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>272.80095749140207</v>
+        <v>140.84851992759931</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18">
-        <v>123.2769014909863</v>
+        <v>107.0825060736388</v>
       </c>
       <c r="F18">
-        <v>778</v>
+        <v>1480</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>272.80095749140207</v>
+        <v>140.84851992759931</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>265.08250472694641</v>
+        <v>119.1738713216037</v>
       </c>
       <c r="F19">
-        <v>778</v>
+        <v>1480</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C20">
-        <v>171.77813791701811</v>
+        <v>60.406151106786197</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1466</v>
+        <v>1510</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C21">
-        <v>171.77813791701811</v>
+        <v>60.406151106786197</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>12.078869469463831</v>
+        <v>0.29913372918963432</v>
       </c>
       <c r="F21">
-        <v>1466</v>
+        <v>1510</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C22">
-        <v>171.77813791701811</v>
+        <v>60.406151106786197</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22">
-        <v>13.436718709766859</v>
+        <v>0.76642212271690369</v>
       </c>
       <c r="F22">
-        <v>1466</v>
+        <v>1510</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23">
-        <v>171.77813791701811</v>
+        <v>60.406151106786197</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23">
-        <v>23.624442562460899</v>
+        <v>4.4537126123905182</v>
       </c>
       <c r="F23">
-        <v>1466</v>
+        <v>1510</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24">
-        <v>171.77813791701811</v>
+        <v>60.406151106786197</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24">
-        <v>45.591782554984093</v>
+        <v>11.18464990518987</v>
       </c>
       <c r="F24">
-        <v>1466</v>
+        <v>1510</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C25">
-        <v>171.77813791701811</v>
+        <v>60.406151106786197</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>78.229951671790332</v>
+        <v>25.02305538021028</v>
       </c>
       <c r="F25">
-        <v>1466</v>
+        <v>1510</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>174.45579681260659</v>
+        <v>442.58079447146878</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>2.9714727774262428E-2</v>
+        <v>20.569822609424591</v>
       </c>
       <c r="F26">
-        <v>1925</v>
+        <v>1482</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>174.45579681260659</v>
+        <v>442.58079447146878</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>164.61495204456151</v>
+        <v>144.2274717986584</v>
       </c>
       <c r="F27">
-        <v>1925</v>
+        <v>1482</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>174.45579681260659</v>
+        <v>442.58079447146878</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>164.61495204456151</v>
+        <v>190.3679483085871</v>
       </c>
       <c r="F28">
-        <v>1925</v>
+        <v>1482</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>174.45579681260659</v>
+        <v>442.58079447146878</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29">
-        <v>167.4610260296613</v>
+        <v>229.8753372251667</v>
       </c>
       <c r="F29">
-        <v>1925</v>
+        <v>1482</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>174.45579681260659</v>
+        <v>442.58079447146878</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>172.86642249114811</v>
+        <v>284.3860615973972</v>
       </c>
       <c r="F30">
-        <v>1925</v>
+        <v>1482</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>174.45579681260659</v>
+        <v>442.58079447146878</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>174.06546922214329</v>
+        <v>336.49767399697163</v>
       </c>
       <c r="F31">
-        <v>1925</v>
+        <v>1482</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>140.84851992759931</v>
+        <v>97.816168463632408</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32">
-        <v>2.03632990270853</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1480</v>
+        <v>1432</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C33">
-        <v>140.84851992759931</v>
+        <v>97.816168463632408</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33">
-        <v>62.562358908355243</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1480</v>
+        <v>1432</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C34">
-        <v>140.84851992759931</v>
+        <v>97.816168463632408</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34">
-        <v>74.390508405864239</v>
+        <v>0.83734557032585144</v>
       </c>
       <c r="F34">
-        <v>1480</v>
+        <v>1432</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C35">
-        <v>140.84851992759931</v>
+        <v>97.816168463632408</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35">
-        <v>89.379796711727977</v>
+        <v>3.1402826085686679</v>
       </c>
       <c r="F35">
-        <v>1480</v>
+        <v>1432</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C36">
-        <v>140.84851992759931</v>
+        <v>97.816168463632408</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36">
-        <v>107.0825060736388</v>
+        <v>21.057749308645729</v>
       </c>
       <c r="F36">
-        <v>1480</v>
+        <v>1432</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>140.84851992759931</v>
+        <v>97.816168463632408</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>119.1738713216037</v>
+        <v>33.057598032057292</v>
       </c>
       <c r="F37">
-        <v>1480</v>
+        <v>1432</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>470.42170228761057</v>
+        <v>244.3314574242155</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>0.26250794529914862</v>
+        <v>2.6301071774214511</v>
       </c>
       <c r="F38">
-        <v>1580</v>
+        <v>1460</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>470.42170228761057</v>
+        <v>244.3314574242155</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39">
-        <v>0.56695914268493652</v>
+        <v>50.198545285500593</v>
       </c>
       <c r="F39">
-        <v>1580</v>
+        <v>1460</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>470.42170228761057</v>
+        <v>244.3314574242155</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40">
-        <v>0.78022024035453796</v>
+        <v>71.477037068456411</v>
       </c>
       <c r="F40">
-        <v>1580</v>
+        <v>1460</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>470.42170228761057</v>
+        <v>244.3314574242155</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41">
-        <v>153.24628953306819</v>
+        <v>96.148325394373387</v>
       </c>
       <c r="F41">
-        <v>1580</v>
+        <v>1460</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>470.42170228761057</v>
+        <v>244.3314574242155</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42">
-        <v>307.82554293467552</v>
+        <v>132.94868763528939</v>
       </c>
       <c r="F42">
-        <v>1580</v>
+        <v>1460</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>470.42170228761057</v>
+        <v>244.3314574242155</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43">
-        <v>384.03778249255271</v>
+        <v>163.69499188654299</v>
       </c>
       <c r="F43">
-        <v>1580</v>
+        <v>1460</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>1671.276807306079</v>
+        <v>744.78278447460093</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44">
-        <v>0.87790765427052975</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>993</v>
+        <v>1449</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>1671.276807306079</v>
+        <v>744.78278447460093</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>22.46691905520856</v>
+        <v>24.185031354427341</v>
       </c>
       <c r="F45">
-        <v>993</v>
+        <v>1449</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>1671.276807306079</v>
+        <v>744.78278447460093</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46">
-        <v>31.391105121001601</v>
+        <v>38.07200688123703</v>
       </c>
       <c r="F46">
-        <v>993</v>
+        <v>1449</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>1671.276807306079</v>
+        <v>744.78278447460093</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47">
-        <v>243.01241972995919</v>
+        <v>93.670437076129019</v>
       </c>
       <c r="F47">
-        <v>993</v>
+        <v>1449</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>1671.276807306079</v>
+        <v>744.78278447460093</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48">
-        <v>610.17555028898641</v>
+        <v>176.89296030905101</v>
       </c>
       <c r="F48">
-        <v>993</v>
+        <v>1449</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>1671.276807306079</v>
+        <v>744.78278447460093</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49">
-        <v>1452.8504257793541</v>
+        <v>275.63847938086838</v>
       </c>
       <c r="F49">
-        <v>993</v>
+        <v>1449</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C50">
-        <v>60.406151106786197</v>
+        <v>399.7107157093572</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1510</v>
+        <v>1460</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C51">
-        <v>60.406151106786197</v>
+        <v>399.7107157093572</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51">
-        <v>0.29913372918963432</v>
+        <v>19.152781474404041</v>
       </c>
       <c r="F51">
-        <v>1510</v>
+        <v>1460</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C52">
-        <v>60.406151106786197</v>
+        <v>399.7107157093572</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52">
-        <v>0.76642212271690369</v>
+        <v>29.15830300189555</v>
       </c>
       <c r="F52">
-        <v>1510</v>
+        <v>1460</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C53">
-        <v>60.406151106786197</v>
+        <v>399.7107157093572</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>4.4537126123905182</v>
+        <v>79.66335541754961</v>
       </c>
       <c r="F53">
-        <v>1510</v>
+        <v>1460</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C54">
-        <v>60.406151106786197</v>
+        <v>399.7107157093572</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54">
-        <v>11.18464990518987</v>
+        <v>141.7257186952047</v>
       </c>
       <c r="F54">
-        <v>1510</v>
+        <v>1460</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C55">
-        <v>60.406151106786197</v>
+        <v>399.7107157093572</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>25.02305538021028</v>
+        <v>201.5225686756894</v>
       </c>
       <c r="F55">
-        <v>1510</v>
+        <v>1460</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
       </c>
       <c r="C56">
-        <v>1566.1454751983781</v>
+        <v>272.80095749140207</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56">
-        <v>0.29519083502236748</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
       </c>
       <c r="C57">
-        <v>1566.1454751983781</v>
+        <v>272.80095749140207</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>0.29519083502236748</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>51</v>
       </c>
       <c r="C58">
-        <v>1566.1454751983781</v>
+        <v>272.80095749140207</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E58">
-        <v>25.295190835022371</v>
+        <v>33.915862396359437</v>
       </c>
       <c r="F58">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>51</v>
       </c>
       <c r="C59">
-        <v>1566.1454751983781</v>
+        <v>272.80095749140207</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59">
-        <v>54.045132437371649</v>
+        <v>71.691342934966087</v>
       </c>
       <c r="F59">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>51</v>
       </c>
       <c r="C60">
-        <v>1566.1454751983781</v>
+        <v>272.80095749140207</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60">
-        <v>170.50962885760239</v>
+        <v>123.2769014909863</v>
       </c>
       <c r="F60">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>51</v>
       </c>
       <c r="C61">
-        <v>1566.1454751983781</v>
+        <v>272.80095749140207</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61">
-        <v>601.38428685360122</v>
+        <v>265.08250472694641</v>
       </c>
       <c r="F61">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
       </c>
       <c r="C62">
-        <v>10492.9111465818</v>
+        <v>1671.276807306079</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62">
-        <v>799.06584821268916</v>
+        <v>0.87790765427052975</v>
       </c>
       <c r="F62">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>794</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
       </c>
       <c r="C63">
-        <v>10492.9111465818</v>
+        <v>1671.276807306079</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63">
-        <v>4798.9445525109768</v>
+        <v>22.46691905520856</v>
       </c>
       <c r="F63">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>794</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
       </c>
       <c r="C64">
-        <v>10492.9111465818</v>
+        <v>1671.276807306079</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E64">
-        <v>7170.876986246556</v>
+        <v>31.391105121001601</v>
       </c>
       <c r="F64">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>794</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
       </c>
       <c r="C65">
-        <v>10492.9111465818</v>
+        <v>1671.276807306079</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65">
-        <v>8086.2356023006141</v>
+        <v>243.01241972995919</v>
       </c>
       <c r="F65">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>794</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
       </c>
       <c r="C66">
-        <v>10492.9111465818</v>
+        <v>1671.276807306079</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66">
-        <v>9132.3138973414898</v>
+        <v>610.17555028898641</v>
       </c>
       <c r="F66">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G129" si="1">2014-F66</f>
-        <v>794</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
       </c>
       <c r="C67">
-        <v>10492.9111465818</v>
+        <v>1671.276807306079</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67">
-        <v>9957.6908491589129</v>
+        <v>1452.8504257793541</v>
       </c>
       <c r="F67">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>794</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
       </c>
       <c r="C68">
-        <v>64.914081639120482</v>
+        <v>1566.1454751983781</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>0.1019118502736092</v>
+        <v>0.29519083502236748</v>
       </c>
       <c r="F68">
-        <v>1580</v>
+        <v>417</v>
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
       </c>
       <c r="C69">
-        <v>64.914081639120482</v>
+        <v>1566.1454751983781</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69">
-        <v>0.1019118502736092</v>
+        <v>0.29519083502236748</v>
       </c>
       <c r="F69">
-        <v>1580</v>
+        <v>417</v>
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
       </c>
       <c r="C70">
-        <v>64.914081639120482</v>
+        <v>1566.1454751983781</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70">
-        <v>0.1019118502736092</v>
+        <v>25.295190835022371</v>
       </c>
       <c r="F70">
-        <v>1580</v>
+        <v>417</v>
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
       </c>
       <c r="C71">
-        <v>64.914081639120482</v>
+        <v>1566.1454751983781</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71">
-        <v>12.46021658927202</v>
+        <v>54.045132437371649</v>
       </c>
       <c r="F71">
-        <v>1580</v>
+        <v>417</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
       </c>
       <c r="C72">
-        <v>64.914081639120482</v>
+        <v>1566.1454751983781</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E72">
-        <v>17.57197134941816</v>
+        <v>170.50962885760239</v>
       </c>
       <c r="F72">
-        <v>1580</v>
+        <v>417</v>
       </c>
       <c r="G72">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
       </c>
       <c r="C73">
-        <v>64.914081639120482</v>
+        <v>1566.1454751983781</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E73">
-        <v>25.28380220383406</v>
+        <v>601.38428685360122</v>
       </c>
       <c r="F73">
-        <v>1580</v>
+        <v>417</v>
       </c>
       <c r="G73">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
       </c>
       <c r="C74">
-        <v>273.05168717444428</v>
+        <v>368.0439905210842</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74">
-        <v>0.25205418467521667</v>
+        <v>5.4553631693124771E-2</v>
       </c>
       <c r="F74">
-        <v>1462</v>
+        <v>246</v>
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
       </c>
       <c r="C75">
-        <v>273.05168717444428</v>
+        <v>368.0439905210842</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E75">
-        <v>0.25205418467521667</v>
+        <v>0.44159628823399538</v>
       </c>
       <c r="F75">
-        <v>1462</v>
+        <v>246</v>
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
       </c>
       <c r="C76">
-        <v>273.05168717444428</v>
+        <v>368.0439905210842</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76">
-        <v>0.25205418467521667</v>
+        <v>1.488279920071363</v>
       </c>
       <c r="F76">
-        <v>1462</v>
+        <v>246</v>
       </c>
       <c r="G76">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
       </c>
       <c r="C77">
-        <v>273.05168717444428</v>
+        <v>368.0439905210842</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77">
-        <v>219.61479116394179</v>
+        <v>37.934748526662588</v>
       </c>
       <c r="F77">
-        <v>1462</v>
+        <v>246</v>
       </c>
       <c r="G77">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
       </c>
       <c r="C78">
-        <v>273.05168717444428</v>
+        <v>368.0439905210842</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78">
-        <v>251.70126567198889</v>
+        <v>156.546243365854</v>
       </c>
       <c r="F78">
-        <v>1462</v>
+        <v>246</v>
       </c>
       <c r="G78">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
       </c>
       <c r="C79">
-        <v>273.05168717444428</v>
+        <v>368.0439905210842</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>270.31515643908642</v>
+        <v>336.03233161941171</v>
       </c>
       <c r="F79">
-        <v>1462</v>
+        <v>246</v>
       </c>
       <c r="G79">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
       </c>
       <c r="C80">
-        <v>4737.2205126872605</v>
+        <v>707.78315684524011</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E80">
-        <v>1.945753360167146</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1897</v>
+        <v>260</v>
       </c>
       <c r="G80">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
       </c>
       <c r="C81">
-        <v>4737.2205126872605</v>
+        <v>707.78315684524011</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E81">
-        <v>4679.0954341273746</v>
+        <v>0.61481060087680817</v>
       </c>
       <c r="F81">
-        <v>1897</v>
+        <v>260</v>
       </c>
       <c r="G81">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
       </c>
       <c r="C82">
-        <v>4737.2205126872605</v>
+        <v>707.78315684524011</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E82">
-        <v>4699.9186963308603</v>
+        <v>59.858583971858017</v>
       </c>
       <c r="F82">
-        <v>1897</v>
+        <v>260</v>
       </c>
       <c r="G82">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
       </c>
       <c r="C83">
-        <v>4737.2205126872605</v>
+        <v>707.78315684524011</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83">
-        <v>4708.51223997958</v>
+        <v>225.06628742069009</v>
       </c>
       <c r="F83">
-        <v>1897</v>
+        <v>260</v>
       </c>
       <c r="G83">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
       </c>
       <c r="C84">
-        <v>4737.2205126872605</v>
+        <v>707.78315684524011</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84">
-        <v>4710.5113956797868</v>
+        <v>358.37039687484503</v>
       </c>
       <c r="F84">
-        <v>1897</v>
+        <v>260</v>
       </c>
       <c r="G84">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>4737.2205126872605</v>
+        <v>707.78315684524011</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E85">
-        <v>4714.5113956797868</v>
+        <v>572.33619244396687</v>
       </c>
       <c r="F85">
-        <v>1897</v>
+        <v>260</v>
       </c>
       <c r="G85">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>51</v>
       </c>
       <c r="C86">
-        <v>19.944751369393771</v>
+        <v>817.89184921799426</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1500</v>
+        <v>671</v>
       </c>
       <c r="G86">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
       </c>
       <c r="C87">
-        <v>19.944751369393771</v>
+        <v>817.89184921799426</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1500</v>
+        <v>671</v>
       </c>
       <c r="G87">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
       </c>
       <c r="C88">
-        <v>19.944751369393771</v>
+        <v>817.89184921799426</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.34317197650671011</v>
       </c>
       <c r="F88">
-        <v>1500</v>
+        <v>671</v>
       </c>
       <c r="G88">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
       </c>
       <c r="C89">
-        <v>19.944751369393771</v>
+        <v>817.89184921799426</v>
       </c>
       <c r="D89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E89">
-        <v>9.1647521108388901</v>
+        <v>33.519128985702991</v>
       </c>
       <c r="F89">
-        <v>1500</v>
+        <v>671</v>
       </c>
       <c r="G89">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
       </c>
       <c r="C90">
-        <v>19.944751369393771</v>
+        <v>817.89184921799426</v>
       </c>
       <c r="D90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E90">
-        <v>9.1647521108388901</v>
+        <v>83.924483060836792</v>
       </c>
       <c r="F90">
-        <v>1500</v>
+        <v>671</v>
       </c>
       <c r="G90">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
       </c>
       <c r="C91">
-        <v>19.944751369393771</v>
+        <v>817.89184921799426</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E91">
-        <v>16.08784907404333</v>
+        <v>483.67786903120577</v>
       </c>
       <c r="F91">
-        <v>1500</v>
+        <v>671</v>
       </c>
       <c r="G91">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
       </c>
       <c r="C92">
-        <v>1445.69264604914</v>
+        <v>2047.1692596965031</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>0.35624730680137873</v>
+        <v>0.21240831911563871</v>
       </c>
       <c r="F92">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="G92">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
       </c>
       <c r="C93">
-        <v>1445.69264604914</v>
+        <v>2047.1692596965031</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E93">
-        <v>689.13780512847006</v>
+        <v>0.21240831911563871</v>
       </c>
       <c r="F93">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="G93">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
       </c>
       <c r="C94">
-        <v>1445.69264604914</v>
+        <v>2047.1692596965031</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E94">
-        <v>788.03980752639472</v>
+        <v>0.21240831911563871</v>
       </c>
       <c r="F94">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
       </c>
       <c r="C95">
-        <v>1445.69264604914</v>
+        <v>2047.1692596965031</v>
       </c>
       <c r="D95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E95">
-        <v>875.97730040363967</v>
+        <v>82.866657584905624</v>
       </c>
       <c r="F95">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="G95">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
       </c>
       <c r="C96">
-        <v>1445.69264604914</v>
+        <v>2047.1692596965031</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E96">
-        <v>1111.8097901232541</v>
+        <v>470.1305882409215</v>
       </c>
       <c r="F96">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="G96">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
       </c>
       <c r="C97">
-        <v>1445.69264604914</v>
+        <v>2047.1692596965031</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E97">
-        <v>1263.7510041035709</v>
+        <v>897.98145566880703</v>
       </c>
       <c r="F97">
-        <v>1030</v>
+        <v>421</v>
       </c>
       <c r="G97">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C98">
-        <v>368.0439905210842</v>
+        <v>642.27494835112725</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E98">
-        <v>5.4553631693124771E-2</v>
+        <v>0.1036987006664276</v>
       </c>
       <c r="F98">
-        <v>246</v>
+        <v>1567</v>
       </c>
       <c r="G98">
         <f t="shared" si="1"/>
-        <v>1768</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C99">
-        <v>368.0439905210842</v>
+        <v>642.27494835112725</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E99">
-        <v>0.44159628823399538</v>
+        <v>0.4700910747051239</v>
       </c>
       <c r="F99">
-        <v>246</v>
+        <v>1567</v>
       </c>
       <c r="G99">
         <f t="shared" si="1"/>
-        <v>1768</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C100">
-        <v>368.0439905210842</v>
+        <v>642.27494835112725</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E100">
-        <v>1.488279920071363</v>
+        <v>490.53882671892637</v>
       </c>
       <c r="F100">
-        <v>246</v>
+        <v>1567</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
-        <v>1768</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C101">
-        <v>368.0439905210842</v>
+        <v>642.27494835112725</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E101">
-        <v>37.934748526662588</v>
+        <v>535.08832779526711</v>
       </c>
       <c r="F101">
-        <v>246</v>
+        <v>1567</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
-        <v>1768</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C102">
-        <v>368.0439905210842</v>
+        <v>642.27494835112725</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E102">
-        <v>156.546243365854</v>
+        <v>613.34929003193974</v>
       </c>
       <c r="F102">
-        <v>246</v>
+        <v>1567</v>
       </c>
       <c r="G102">
         <f t="shared" si="1"/>
-        <v>1768</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C103">
-        <v>368.0439905210842</v>
+        <v>642.27494835112725</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103">
-        <v>336.03233161941171</v>
+        <v>640.84510542824864</v>
       </c>
       <c r="F103">
-        <v>246</v>
+        <v>1567</v>
       </c>
       <c r="G103">
         <f t="shared" si="1"/>
-        <v>1768</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C104">
-        <v>707.78315684524011</v>
+        <v>470.42170228761057</v>
       </c>
       <c r="D104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.26250794529914862</v>
       </c>
       <c r="F104">
-        <v>260</v>
+        <v>1580</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>1754</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C105">
-        <v>707.78315684524011</v>
+        <v>470.42170228761057</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E105">
-        <v>0.61481060087680817</v>
+        <v>0.56695914268493652</v>
       </c>
       <c r="F105">
-        <v>260</v>
+        <v>1580</v>
       </c>
       <c r="G105">
         <f t="shared" si="1"/>
-        <v>1754</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C106">
-        <v>707.78315684524011</v>
+        <v>470.42170228761057</v>
       </c>
       <c r="D106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E106">
-        <v>59.858583971858017</v>
+        <v>0.78022024035453796</v>
       </c>
       <c r="F106">
-        <v>260</v>
+        <v>1580</v>
       </c>
       <c r="G106">
         <f t="shared" si="1"/>
-        <v>1754</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C107">
-        <v>707.78315684524011</v>
+        <v>470.42170228761057</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107">
-        <v>225.06628742069009</v>
+        <v>153.24628953306819</v>
       </c>
       <c r="F107">
-        <v>260</v>
+        <v>1580</v>
       </c>
       <c r="G107">
         <f t="shared" si="1"/>
-        <v>1754</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C108">
-        <v>707.78315684524011</v>
+        <v>470.42170228761057</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E108">
-        <v>358.37039687484503</v>
+        <v>307.82554293467552</v>
       </c>
       <c r="F108">
-        <v>260</v>
+        <v>1580</v>
       </c>
       <c r="G108">
         <f t="shared" si="1"/>
-        <v>1754</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C109">
-        <v>707.78315684524011</v>
+        <v>470.42170228761057</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E109">
-        <v>572.33619244396687</v>
+        <v>384.03778249255271</v>
       </c>
       <c r="F109">
-        <v>260</v>
+        <v>1580</v>
       </c>
       <c r="G109">
         <f t="shared" si="1"/>
-        <v>1754</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C110">
-        <v>2520.2303367074128</v>
+        <v>64.914081639120482</v>
       </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.1019118502736092</v>
       </c>
       <c r="F110">
-        <v>1662</v>
+        <v>1580</v>
       </c>
       <c r="G110">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>2520.2303367074128</v>
+        <v>64.914081639120482</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.1019118502736092</v>
       </c>
       <c r="F111">
-        <v>1662</v>
+        <v>1580</v>
       </c>
       <c r="G111">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C112">
-        <v>2520.2303367074128</v>
+        <v>64.914081639120482</v>
       </c>
       <c r="D112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E112">
-        <v>26.30158931016922</v>
+        <v>0.1019118502736092</v>
       </c>
       <c r="F112">
-        <v>1662</v>
+        <v>1580</v>
       </c>
       <c r="G112">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C113">
-        <v>2520.2303367074128</v>
+        <v>64.914081639120482</v>
       </c>
       <c r="D113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E113">
-        <v>138.14644384384161</v>
+        <v>12.46021658927202</v>
       </c>
       <c r="F113">
-        <v>1662</v>
+        <v>1580</v>
       </c>
       <c r="G113">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C114">
-        <v>2520.2303367074128</v>
+        <v>64.914081639120482</v>
       </c>
       <c r="D114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E114">
-        <v>413.65307537675841</v>
+        <v>17.57197134941816</v>
       </c>
       <c r="F114">
-        <v>1662</v>
+        <v>1580</v>
       </c>
       <c r="G114">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>42</v>
-      </c>
-      <c r="B115" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C115">
-        <v>2520.2303367074128</v>
+        <v>64.914081639120482</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E115">
-        <v>814.33780658827163</v>
+        <v>25.28380220383406</v>
       </c>
       <c r="F115">
-        <v>1662</v>
+        <v>1580</v>
       </c>
       <c r="G115">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C116">
-        <v>366.46683036560353</v>
+        <v>273.05168717444428</v>
       </c>
       <c r="D116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E116">
-        <v>7.8586353063583374</v>
+        <v>0.25205418467521667</v>
       </c>
       <c r="F116">
-        <v>1035</v>
+        <v>1462</v>
       </c>
       <c r="G116">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C117">
-        <v>366.46683036560353</v>
+        <v>273.05168717444428</v>
       </c>
       <c r="D117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E117">
-        <v>264.52101019211108</v>
+        <v>0.25205418467521667</v>
       </c>
       <c r="F117">
-        <v>1035</v>
+        <v>1462</v>
       </c>
       <c r="G117">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C118">
-        <v>366.46683036560353</v>
+        <v>273.05168717444428</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E118">
-        <v>281.36609551496798</v>
+        <v>0.25205418467521667</v>
       </c>
       <c r="F118">
-        <v>1035</v>
+        <v>1462</v>
       </c>
       <c r="G118">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C119">
-        <v>366.46683036560353</v>
+        <v>273.05168717444428</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E119">
-        <v>305.36088067479432</v>
+        <v>219.61479116394179</v>
       </c>
       <c r="F119">
-        <v>1035</v>
+        <v>1462</v>
       </c>
       <c r="G119">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C120">
-        <v>366.46683036560353</v>
+        <v>273.05168717444428</v>
       </c>
       <c r="D120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E120">
-        <v>351.29293686337769</v>
+        <v>251.70126567198889</v>
       </c>
       <c r="F120">
-        <v>1035</v>
+        <v>1462</v>
       </c>
       <c r="G120">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>552</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C121">
-        <v>366.46683036560353</v>
+        <v>273.05168717444428</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E121">
-        <v>357.29293686337769</v>
+        <v>270.31515643908642</v>
       </c>
       <c r="F121">
-        <v>1035</v>
+        <v>1462</v>
       </c>
       <c r="G121">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C122">
-        <v>817.89184921799426</v>
+        <v>224.01072015386359</v>
       </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>671</v>
+        <v>1650</v>
       </c>
       <c r="G122">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C123">
-        <v>817.89184921799426</v>
+        <v>224.01072015386359</v>
       </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>4.112296923995018E-2</v>
       </c>
       <c r="F123">
-        <v>671</v>
+        <v>1650</v>
       </c>
       <c r="G123">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C124">
-        <v>817.89184921799426</v>
+        <v>224.01072015386359</v>
       </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E124">
-        <v>0.34317197650671011</v>
+        <v>70.181213673204184</v>
       </c>
       <c r="F124">
-        <v>671</v>
+        <v>1650</v>
       </c>
       <c r="G124">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C125">
-        <v>817.89184921799426</v>
+        <v>224.01072015386359</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E125">
-        <v>33.519128985702991</v>
+        <v>97.700445663183928</v>
       </c>
       <c r="F125">
-        <v>671</v>
+        <v>1650</v>
       </c>
       <c r="G125">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C126">
-        <v>817.89184921799426</v>
+        <v>224.01072015386359</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E126">
-        <v>83.924483060836792</v>
+        <v>144.46589874848721</v>
       </c>
       <c r="F126">
-        <v>671</v>
+        <v>1650</v>
       </c>
       <c r="G126">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C127">
-        <v>817.89184921799426</v>
+        <v>224.01072015386359</v>
       </c>
       <c r="D127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E127">
-        <v>483.67786903120577</v>
+        <v>202.8791617080569</v>
       </c>
       <c r="F127">
-        <v>671</v>
+        <v>1650</v>
       </c>
       <c r="G127">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C128">
-        <v>740.83380404834463</v>
+        <v>1007.154022861689</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>6.1679914593696587E-2</v>
       </c>
       <c r="F128">
-        <v>1419</v>
+        <v>1462</v>
       </c>
       <c r="G128">
         <f t="shared" si="1"/>
-        <v>595</v>
+        <v>552</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C129">
-        <v>740.83380404834463</v>
+        <v>1007.154022861689</v>
       </c>
       <c r="D129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E129">
-        <v>34</v>
+        <v>6.1679914593696587E-2</v>
       </c>
       <c r="F129">
-        <v>1419</v>
+        <v>1462</v>
       </c>
       <c r="G129">
         <f t="shared" si="1"/>
-        <v>595</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C130">
-        <v>740.83380404834463</v>
+        <v>1007.154022861689</v>
       </c>
       <c r="D130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E130">
-        <v>50.272376716136932</v>
+        <v>0.1084832809865475</v>
       </c>
       <c r="F130">
-        <v>1419</v>
+        <v>1462</v>
       </c>
       <c r="G130">
         <f t="shared" ref="G130:G193" si="2">2014-F130</f>
-        <v>595</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C131">
-        <v>740.83380404834463</v>
+        <v>1007.154022861689</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E131">
-        <v>123.3965536616743</v>
+        <v>163.53747326508159</v>
       </c>
       <c r="F131">
-        <v>1419</v>
+        <v>1462</v>
       </c>
       <c r="G131">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C132">
-        <v>740.83380404834463</v>
+        <v>1007.154022861689</v>
       </c>
       <c r="D132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E132">
-        <v>250.87237953580919</v>
+        <v>286.40648595616221</v>
       </c>
       <c r="F132">
-        <v>1419</v>
+        <v>1462</v>
       </c>
       <c r="G132">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C133">
-        <v>740.83380404834463</v>
+        <v>1007.154022861689</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133">
-        <v>369.74956137873232</v>
+        <v>466.00443372502917</v>
       </c>
       <c r="F133">
-        <v>1419</v>
+        <v>1462</v>
       </c>
       <c r="G133">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C134">
-        <v>1893.1900084541751</v>
+        <v>792.54793565259968</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E134">
-        <v>24.363206228241321</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="G134">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C135">
-        <v>1893.1900084541751</v>
+        <v>792.54793565259968</v>
       </c>
       <c r="D135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E135">
-        <v>541.37832129187882</v>
+        <v>0.22454306483268741</v>
       </c>
       <c r="F135">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="G135">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C136">
-        <v>1893.1900084541751</v>
+        <v>792.54793565259968</v>
       </c>
       <c r="D136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E136">
-        <v>818.97070943354629</v>
+        <v>449.79760992527008</v>
       </c>
       <c r="F136">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="G136">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C137">
-        <v>1893.1900084541751</v>
+        <v>792.54793565259968</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E137">
-        <v>960.19145844667219</v>
+        <v>491.73806102853268</v>
       </c>
       <c r="F137">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="G137">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C138">
-        <v>1893.1900084541751</v>
+        <v>792.54793565259968</v>
       </c>
       <c r="D138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E138">
-        <v>1381.846305261832</v>
+        <v>608.3579235849902</v>
       </c>
       <c r="F138">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="G138">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C139">
-        <v>1893.1900084541751</v>
+        <v>792.54793565259968</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E139">
-        <v>1630.987221715041</v>
+        <v>659.83242404740304</v>
       </c>
       <c r="F139">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="G139">
         <f t="shared" si="2"/>
-        <v>814</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C140">
-        <v>1872.9543217546579</v>
+        <v>347.82583202661732</v>
       </c>
       <c r="D140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.1723190825432539</v>
       </c>
       <c r="F140">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="G140">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C141">
-        <v>1872.9543217546579</v>
+        <v>347.82583202661732</v>
       </c>
       <c r="D141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.1723190825432539</v>
       </c>
       <c r="F141">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="G141">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C142">
-        <v>1872.9543217546579</v>
+        <v>347.82583202661732</v>
       </c>
       <c r="D142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>127.3202848117799</v>
       </c>
       <c r="F142">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="G142">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C143">
-        <v>1872.9543217546579</v>
+        <v>347.82583202661732</v>
       </c>
       <c r="D143" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E143">
-        <v>2.1467250734567642</v>
+        <v>161.05211394838989</v>
       </c>
       <c r="F143">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="G143">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C144">
-        <v>1872.9543217546579</v>
+        <v>347.82583202661732</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E144">
-        <v>101.25110101886089</v>
+        <v>242.2946354011074</v>
       </c>
       <c r="F144">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="G144">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C145">
-        <v>1872.9543217546579</v>
+        <v>347.82583202661732</v>
       </c>
       <c r="D145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E145">
-        <v>782.08436560926202</v>
+        <v>282.40312372241169</v>
       </c>
       <c r="F145">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="G145">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C146">
-        <v>679.16699969917488</v>
+        <v>226.04613882758579</v>
       </c>
       <c r="D146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E146">
-        <v>1.116260290145874</v>
+        <v>0.34702904894948011</v>
       </c>
       <c r="F146">
-        <v>559</v>
+        <v>1486</v>
       </c>
       <c r="G146">
         <f t="shared" si="2"/>
-        <v>1455</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C147">
-        <v>679.16699969917488</v>
+        <v>226.04613882758579</v>
       </c>
       <c r="D147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E147">
-        <v>305.52074722200632</v>
+        <v>0.34702904894948011</v>
       </c>
       <c r="F147">
-        <v>559</v>
+        <v>1623</v>
       </c>
       <c r="G147">
         <f t="shared" si="2"/>
-        <v>1455</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C148">
-        <v>679.16699969917488</v>
+        <v>226.04613882758579</v>
       </c>
       <c r="D148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E148">
-        <v>429.60116377845412</v>
+        <v>0.46051602438092232</v>
       </c>
       <c r="F148">
-        <v>559</v>
+        <v>1623</v>
       </c>
       <c r="G148">
         <f t="shared" si="2"/>
-        <v>1455</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C149">
-        <v>679.16699969917488</v>
+        <v>226.04613882758579</v>
       </c>
       <c r="D149" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E149">
-        <v>516.61367755010724</v>
+        <v>0.46051602438092232</v>
       </c>
       <c r="F149">
-        <v>559</v>
+        <v>1623</v>
       </c>
       <c r="G149">
         <f t="shared" si="2"/>
-        <v>1455</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C150">
-        <v>679.16699969917488</v>
+        <v>226.04613882758579</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E150">
-        <v>615.72341235354543</v>
+        <v>103.15156373754139</v>
       </c>
       <c r="F150">
-        <v>559</v>
+        <v>1623</v>
       </c>
       <c r="G150">
         <f t="shared" si="2"/>
-        <v>1455</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C151">
-        <v>679.16699969917488</v>
+        <v>226.04613882758579</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E151">
-        <v>660.31106961145997</v>
+        <v>178.8134994497523</v>
       </c>
       <c r="F151">
-        <v>559</v>
+        <v>1623</v>
       </c>
       <c r="G151">
         <f t="shared" si="2"/>
-        <v>1455</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C152">
-        <v>187.46205369687479</v>
+        <v>174.45579681260659</v>
       </c>
       <c r="D152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E152">
-        <v>0.93894168362021446</v>
+        <v>2.9714727774262428E-2</v>
       </c>
       <c r="F152">
-        <v>1030</v>
+        <v>1925</v>
       </c>
       <c r="G152">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C153">
-        <v>187.46205369687479</v>
+        <v>174.45579681260659</v>
       </c>
       <c r="D153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E153">
-        <v>183.9687678813934</v>
+        <v>164.61495204456151</v>
       </c>
       <c r="F153">
-        <v>1030</v>
+        <v>1925</v>
       </c>
       <c r="G153">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C154">
-        <v>187.46205369687479</v>
+        <v>174.45579681260659</v>
       </c>
       <c r="D154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E154">
-        <v>186.9687678813934</v>
+        <v>164.61495204456151</v>
       </c>
       <c r="F154">
-        <v>1030</v>
+        <v>1925</v>
       </c>
       <c r="G154">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C155">
-        <v>187.46205369687479</v>
+        <v>174.45579681260659</v>
       </c>
       <c r="D155" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E155">
-        <v>186.9687678813934</v>
+        <v>167.4610260296613</v>
       </c>
       <c r="F155">
-        <v>1030</v>
+        <v>1925</v>
       </c>
       <c r="G155">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C156">
-        <v>187.46205369687479</v>
+        <v>174.45579681260659</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E156">
-        <v>186.9687678813934</v>
+        <v>172.86642249114811</v>
       </c>
       <c r="F156">
-        <v>1030</v>
+        <v>1925</v>
       </c>
       <c r="G156">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C157">
-        <v>187.46205369687479</v>
+        <v>174.45579681260659</v>
       </c>
       <c r="D157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E157">
-        <v>186.9687678813934</v>
+        <v>174.06546922214329</v>
       </c>
       <c r="F157">
-        <v>1030</v>
+        <v>1925</v>
       </c>
       <c r="G157">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C158">
-        <v>1559.821408411535</v>
+        <v>4737.2205126872605</v>
       </c>
       <c r="D158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1.945753360167146</v>
       </c>
       <c r="F158">
-        <v>1522</v>
+        <v>1897</v>
       </c>
       <c r="G158">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C159">
-        <v>1559.821408411535</v>
+        <v>4737.2205126872605</v>
       </c>
       <c r="D159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E159">
-        <v>2.1673920098692179</v>
+        <v>4679.0954341273746</v>
       </c>
       <c r="F159">
-        <v>1522</v>
+        <v>1897</v>
       </c>
       <c r="G159">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C160">
-        <v>1559.821408411535</v>
+        <v>4737.2205126872605</v>
       </c>
       <c r="D160" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E160">
-        <v>8.2543947771191597</v>
+        <v>4699.9186963308603</v>
       </c>
       <c r="F160">
-        <v>1522</v>
+        <v>1897</v>
       </c>
       <c r="G160">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C161">
-        <v>1559.821408411535</v>
+        <v>4737.2205126872605</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E161">
-        <v>99.079846501350403</v>
+        <v>4708.51223997958</v>
       </c>
       <c r="F161">
-        <v>1522</v>
+        <v>1897</v>
       </c>
       <c r="G161">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C162">
-        <v>1559.821408411535</v>
+        <v>4737.2205126872605</v>
       </c>
       <c r="D162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E162">
-        <v>552.45670287264511</v>
+        <v>4710.5113956797868</v>
       </c>
       <c r="F162">
-        <v>1522</v>
+        <v>1897</v>
       </c>
       <c r="G162">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>117</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C163">
-        <v>1559.821408411535</v>
+        <v>4737.2205126872605</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E163">
-        <v>772.83791504381225</v>
+        <v>4714.5113956797868</v>
       </c>
       <c r="F163">
-        <v>1522</v>
+        <v>1897</v>
       </c>
       <c r="G163">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C164">
-        <v>442.58079447146878</v>
+        <v>561.73876890649035</v>
       </c>
       <c r="D164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E164">
-        <v>20.569822609424591</v>
+        <v>0.1702757924795151</v>
       </c>
       <c r="F164">
-        <v>1482</v>
+        <v>1835</v>
       </c>
       <c r="G164">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C165">
-        <v>442.58079447146878</v>
+        <v>561.73876890649035</v>
       </c>
       <c r="D165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E165">
-        <v>144.2274717986584</v>
+        <v>519.75827883183956</v>
       </c>
       <c r="F165">
-        <v>1482</v>
+        <v>1835</v>
       </c>
       <c r="G165">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>25</v>
-      </c>
-      <c r="B166" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C166">
-        <v>442.58079447146878</v>
+        <v>561.73876890649035</v>
       </c>
       <c r="D166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E166">
-        <v>190.3679483085871</v>
+        <v>525.83789959549904</v>
       </c>
       <c r="F166">
-        <v>1482</v>
+        <v>1835</v>
       </c>
       <c r="G166">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>25</v>
-      </c>
-      <c r="B167" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C167">
-        <v>442.58079447146878</v>
+        <v>561.73876890649035</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E167">
-        <v>229.8753372251667</v>
+        <v>541.06080165505409</v>
       </c>
       <c r="F167">
-        <v>1482</v>
+        <v>1835</v>
       </c>
       <c r="G167">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C168">
-        <v>442.58079447146878</v>
+        <v>561.73876890649035</v>
       </c>
       <c r="D168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E168">
-        <v>284.3860615973972</v>
+        <v>547.20970270037651</v>
       </c>
       <c r="F168">
-        <v>1482</v>
+        <v>1835</v>
       </c>
       <c r="G168">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>25</v>
-      </c>
-      <c r="B169" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C169">
-        <v>442.58079447146878</v>
+        <v>561.73876890649035</v>
       </c>
       <c r="D169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E169">
-        <v>336.49767399697163</v>
+        <v>550.94659224152565</v>
       </c>
       <c r="F169">
-        <v>1482</v>
+        <v>1835</v>
       </c>
       <c r="G169">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>26</v>
-      </c>
-      <c r="B170" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C170">
-        <v>42.232854124838077</v>
+        <v>992.8805254974759</v>
       </c>
       <c r="D170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.13047532271593809</v>
       </c>
       <c r="F170">
-        <v>1420</v>
+        <v>1840</v>
       </c>
       <c r="G170">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>26</v>
-      </c>
-      <c r="B171" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C171">
-        <v>42.232854124838077</v>
+        <v>992.8805254974759</v>
       </c>
       <c r="D171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>873.06155251245946</v>
       </c>
       <c r="F171">
-        <v>1420</v>
+        <v>1840</v>
       </c>
       <c r="G171">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>26</v>
-      </c>
-      <c r="B172" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C172">
-        <v>42.232854124838077</v>
+        <v>992.8805254974759</v>
       </c>
       <c r="D172" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>885.26740740519017</v>
       </c>
       <c r="F172">
-        <v>1420</v>
+        <v>1840</v>
       </c>
       <c r="G172">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>26</v>
-      </c>
-      <c r="B173" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C173">
-        <v>42.232854124838077</v>
+        <v>992.8805254974759</v>
       </c>
       <c r="D173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E173">
-        <v>0.37538674473762512</v>
+        <v>920.78989921789616</v>
       </c>
       <c r="F173">
-        <v>1420</v>
+        <v>1840</v>
       </c>
       <c r="G173">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>26</v>
-      </c>
-      <c r="B174" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C174">
-        <v>42.232854124838077</v>
+        <v>992.8805254974759</v>
       </c>
       <c r="D174" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E174">
-        <v>3.5282504539936781</v>
+        <v>977.22693935316056</v>
       </c>
       <c r="F174">
-        <v>1420</v>
+        <v>1840</v>
       </c>
       <c r="G174">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>26</v>
-      </c>
-      <c r="B175" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C175">
-        <v>42.232854124838077</v>
+        <v>992.8805254974759</v>
       </c>
       <c r="D175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E175">
-        <v>5.4806795101612806</v>
+        <v>984.60795969050378</v>
       </c>
       <c r="F175">
-        <v>1420</v>
+        <v>1840</v>
       </c>
       <c r="G175">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>27</v>
-      </c>
-      <c r="B176" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C176">
-        <v>138.27832376966401</v>
+        <v>19.944751369393771</v>
       </c>
       <c r="D176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E176">
-        <v>1.6139879822731022E-2</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>1500</v>
@@ -4821,19 +4821,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>27</v>
-      </c>
-      <c r="B177" t="s">
+        <v>41</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C177">
-        <v>138.27832376966401</v>
+        <v>19.944751369393771</v>
       </c>
       <c r="D177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E177">
-        <v>1.6139879822731022E-2</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>1500</v>
@@ -4845,19 +4845,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>27</v>
-      </c>
-      <c r="B178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C178">
-        <v>138.27832376966401</v>
+        <v>19.944751369393771</v>
       </c>
       <c r="D178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E178">
-        <v>1.6139879822731022E-2</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>1500</v>
@@ -4869,19 +4869,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>27</v>
-      </c>
-      <c r="B179" t="s">
+        <v>41</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C179">
-        <v>138.27832376966401</v>
+        <v>19.944751369393771</v>
       </c>
       <c r="D179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E179">
-        <v>79.96187786385417</v>
+        <v>9.1647521108388901</v>
       </c>
       <c r="F179">
         <v>1500</v>
@@ -4893,19 +4893,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>27</v>
-      </c>
-      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C180">
-        <v>138.27832376966401</v>
+        <v>19.944751369393771</v>
       </c>
       <c r="D180" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E180">
-        <v>112.7709055971354</v>
+        <v>9.1647521108388901</v>
       </c>
       <c r="F180">
         <v>1500</v>
@@ -4917,19 +4917,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>27</v>
-      </c>
-      <c r="B181" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C181">
-        <v>138.27832376966401</v>
+        <v>19.944751369393771</v>
       </c>
       <c r="D181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E181">
-        <v>134.32516975514591</v>
+        <v>16.08784907404333</v>
       </c>
       <c r="F181">
         <v>1500</v>
@@ -4941,1879 +4941,1879 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C182">
-        <v>224.01072015386359</v>
+        <v>138.27832376966401</v>
       </c>
       <c r="D182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1.6139879822731022E-2</v>
       </c>
       <c r="F182">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G182">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C183">
-        <v>224.01072015386359</v>
+        <v>138.27832376966401</v>
       </c>
       <c r="D183" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E183">
-        <v>4.112296923995018E-2</v>
+        <v>1.6139879822731022E-2</v>
       </c>
       <c r="F183">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G183">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C184">
-        <v>224.01072015386359</v>
+        <v>138.27832376966401</v>
       </c>
       <c r="D184" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E184">
-        <v>70.181213673204184</v>
+        <v>1.6139879822731022E-2</v>
       </c>
       <c r="F184">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G184">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C185">
-        <v>224.01072015386359</v>
+        <v>138.27832376966401</v>
       </c>
       <c r="D185" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E185">
-        <v>97.700445663183928</v>
+        <v>79.96187786385417</v>
       </c>
       <c r="F185">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G185">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C186">
-        <v>224.01072015386359</v>
+        <v>138.27832376966401</v>
       </c>
       <c r="D186" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E186">
-        <v>144.46589874848721</v>
+        <v>112.7709055971354</v>
       </c>
       <c r="F186">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G186">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C187">
-        <v>224.01072015386359</v>
+        <v>138.27832376966401</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E187">
-        <v>202.8791617080569</v>
+        <v>134.32516975514591</v>
       </c>
       <c r="F187">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G187">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>43</v>
+      <c r="A188" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C188">
-        <v>561.73876890649035</v>
+        <v>853.11201027896698</v>
       </c>
       <c r="D188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E188">
-        <v>0.1702757924795151</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1835</v>
+        <v>1486</v>
       </c>
       <c r="G188">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>43</v>
+      <c r="A189" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C189">
-        <v>561.73876890649035</v>
+        <v>853.11201027896698</v>
       </c>
       <c r="D189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E189">
-        <v>519.75827883183956</v>
+        <v>0.44282425194978708</v>
       </c>
       <c r="F189">
-        <v>1835</v>
+        <v>1486</v>
       </c>
       <c r="G189">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>43</v>
+      <c r="A190" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C190">
-        <v>561.73876890649035</v>
+        <v>853.11201027896698</v>
       </c>
       <c r="D190" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E190">
-        <v>525.83789959549904</v>
+        <v>198.03987419232729</v>
       </c>
       <c r="F190">
-        <v>1835</v>
+        <v>1486</v>
       </c>
       <c r="G190">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>43</v>
+      <c r="A191" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C191">
-        <v>561.73876890649035</v>
+        <v>853.11201027896698</v>
       </c>
       <c r="D191" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E191">
-        <v>541.06080165505409</v>
+        <v>440.56334311375389</v>
       </c>
       <c r="F191">
-        <v>1835</v>
+        <v>1486</v>
       </c>
       <c r="G191">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>43</v>
+      <c r="A192" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C192">
-        <v>561.73876890649035</v>
+        <v>853.11201027896698</v>
       </c>
       <c r="D192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E192">
-        <v>547.20970270037651</v>
+        <v>617.19978495547548</v>
       </c>
       <c r="F192">
-        <v>1835</v>
+        <v>1486</v>
       </c>
       <c r="G192">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>528</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>43</v>
+      <c r="A193" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C193">
-        <v>561.73876890649035</v>
+        <v>853.11201027896698</v>
       </c>
       <c r="D193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E193">
-        <v>550.94659224152565</v>
+        <v>760.82932903477922</v>
       </c>
       <c r="F193">
-        <v>1835</v>
+        <v>1486</v>
       </c>
       <c r="G193">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>528</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>992.8805254974759</v>
+        <v>10492.9111465818</v>
       </c>
       <c r="D194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E194">
-        <v>0.13047532271593809</v>
+        <v>799.06584821268916</v>
       </c>
       <c r="F194">
-        <v>1840</v>
+        <v>1220</v>
       </c>
       <c r="G194">
         <f t="shared" ref="G194:G257" si="3">2014-F194</f>
-        <v>174</v>
+        <v>794</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C195">
-        <v>992.8805254974759</v>
+        <v>10492.9111465818</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E195">
-        <v>873.06155251245946</v>
+        <v>4798.9445525109768</v>
       </c>
       <c r="F195">
-        <v>1840</v>
+        <v>1220</v>
       </c>
       <c r="G195">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>794</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C196">
-        <v>992.8805254974759</v>
+        <v>10492.9111465818</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E196">
-        <v>885.26740740519017</v>
+        <v>7170.876986246556</v>
       </c>
       <c r="F196">
-        <v>1840</v>
+        <v>1220</v>
       </c>
       <c r="G196">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>794</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C197">
-        <v>992.8805254974759</v>
+        <v>10492.9111465818</v>
       </c>
       <c r="D197" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E197">
-        <v>920.78989921789616</v>
+        <v>8086.2356023006141</v>
       </c>
       <c r="F197">
-        <v>1840</v>
+        <v>1220</v>
       </c>
       <c r="G197">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>794</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C198">
-        <v>992.8805254974759</v>
+        <v>10492.9111465818</v>
       </c>
       <c r="D198" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E198">
-        <v>977.22693935316056</v>
+        <v>9132.3138973414898</v>
       </c>
       <c r="F198">
-        <v>1840</v>
+        <v>1220</v>
       </c>
       <c r="G198">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>794</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C199">
-        <v>992.8805254974759</v>
+        <v>10492.9111465818</v>
       </c>
       <c r="D199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E199">
-        <v>984.60795969050378</v>
+        <v>9957.6908491589129</v>
       </c>
       <c r="F199">
-        <v>1840</v>
+        <v>1220</v>
       </c>
       <c r="G199">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>794</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C200">
-        <v>97.816168463632408</v>
+        <v>1445.69264604914</v>
       </c>
       <c r="D200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.35624730680137873</v>
       </c>
       <c r="F200">
-        <v>1432</v>
+        <v>1030</v>
       </c>
       <c r="G200">
         <f t="shared" si="3"/>
-        <v>582</v>
+        <v>984</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C201">
-        <v>97.816168463632408</v>
+        <v>1445.69264604914</v>
       </c>
       <c r="D201" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>689.13780512847006</v>
       </c>
       <c r="F201">
-        <v>1432</v>
+        <v>1030</v>
       </c>
       <c r="G201">
         <f t="shared" si="3"/>
-        <v>582</v>
+        <v>984</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C202">
-        <v>97.816168463632408</v>
+        <v>1445.69264604914</v>
       </c>
       <c r="D202" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E202">
-        <v>0.83734557032585144</v>
+        <v>788.03980752639472</v>
       </c>
       <c r="F202">
-        <v>1432</v>
+        <v>1030</v>
       </c>
       <c r="G202">
         <f t="shared" si="3"/>
-        <v>582</v>
+        <v>984</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C203">
-        <v>97.816168463632408</v>
+        <v>1445.69264604914</v>
       </c>
       <c r="D203" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E203">
-        <v>3.1402826085686679</v>
+        <v>875.97730040363967</v>
       </c>
       <c r="F203">
-        <v>1432</v>
+        <v>1030</v>
       </c>
       <c r="G203">
         <f t="shared" si="3"/>
-        <v>582</v>
+        <v>984</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C204">
-        <v>97.816168463632408</v>
+        <v>1445.69264604914</v>
       </c>
       <c r="D204" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E204">
-        <v>21.057749308645729</v>
+        <v>1111.8097901232541</v>
       </c>
       <c r="F204">
-        <v>1432</v>
+        <v>1030</v>
       </c>
       <c r="G204">
         <f t="shared" si="3"/>
-        <v>582</v>
+        <v>984</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C205">
-        <v>97.816168463632408</v>
+        <v>1445.69264604914</v>
       </c>
       <c r="D205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E205">
-        <v>33.057598032057292</v>
+        <v>1263.7510041035709</v>
       </c>
       <c r="F205">
-        <v>1432</v>
+        <v>1030</v>
       </c>
       <c r="G205">
         <f t="shared" si="3"/>
-        <v>582</v>
+        <v>984</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>1007.154022861689</v>
+        <v>366.46683036560353</v>
       </c>
       <c r="D206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E206">
-        <v>6.1679914593696587E-2</v>
+        <v>7.8586353063583374</v>
       </c>
       <c r="F206">
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="G206">
         <f t="shared" si="3"/>
-        <v>552</v>
+        <v>979</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <v>1007.154022861689</v>
+        <v>366.46683036560353</v>
       </c>
       <c r="D207" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E207">
-        <v>6.1679914593696587E-2</v>
+        <v>264.52101019211108</v>
       </c>
       <c r="F207">
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="G207">
         <f t="shared" si="3"/>
-        <v>552</v>
+        <v>979</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C208">
-        <v>1007.154022861689</v>
+        <v>366.46683036560353</v>
       </c>
       <c r="D208" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E208">
-        <v>0.1084832809865475</v>
+        <v>281.36609551496798</v>
       </c>
       <c r="F208">
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="G208">
         <f t="shared" si="3"/>
-        <v>552</v>
+        <v>979</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C209">
-        <v>1007.154022861689</v>
+        <v>366.46683036560353</v>
       </c>
       <c r="D209" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E209">
-        <v>163.53747326508159</v>
+        <v>305.36088067479432</v>
       </c>
       <c r="F209">
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="G209">
         <f t="shared" si="3"/>
-        <v>552</v>
+        <v>979</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C210">
-        <v>1007.154022861689</v>
+        <v>366.46683036560353</v>
       </c>
       <c r="D210" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E210">
-        <v>286.40648595616221</v>
+        <v>351.29293686337769</v>
       </c>
       <c r="F210">
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="G210">
         <f t="shared" si="3"/>
-        <v>552</v>
+        <v>979</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C211">
-        <v>1007.154022861689</v>
+        <v>366.46683036560353</v>
       </c>
       <c r="D211" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E211">
-        <v>466.00443372502917</v>
+        <v>357.29293686337769</v>
       </c>
       <c r="F211">
-        <v>1462</v>
+        <v>1035</v>
       </c>
       <c r="G211">
         <f t="shared" si="3"/>
-        <v>552</v>
+        <v>979</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C212">
-        <v>792.54793565259968</v>
+        <v>1893.1900084541751</v>
       </c>
       <c r="D212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>24.363206228241321</v>
       </c>
       <c r="F212">
-        <v>1580</v>
+        <v>1200</v>
       </c>
       <c r="G212">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>814</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C213">
-        <v>792.54793565259968</v>
+        <v>1893.1900084541751</v>
       </c>
       <c r="D213" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E213">
-        <v>0.22454306483268741</v>
+        <v>541.37832129187882</v>
       </c>
       <c r="F213">
-        <v>1580</v>
+        <v>1200</v>
       </c>
       <c r="G213">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>814</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C214">
-        <v>792.54793565259968</v>
+        <v>1893.1900084541751</v>
       </c>
       <c r="D214" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E214">
-        <v>449.79760992527008</v>
+        <v>818.97070943354629</v>
       </c>
       <c r="F214">
-        <v>1580</v>
+        <v>1200</v>
       </c>
       <c r="G214">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>814</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C215">
-        <v>792.54793565259968</v>
+        <v>1893.1900084541751</v>
       </c>
       <c r="D215" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E215">
-        <v>491.73806102853268</v>
+        <v>960.19145844667219</v>
       </c>
       <c r="F215">
-        <v>1580</v>
+        <v>1200</v>
       </c>
       <c r="G215">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>814</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C216">
-        <v>792.54793565259968</v>
+        <v>1893.1900084541751</v>
       </c>
       <c r="D216" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E216">
-        <v>608.3579235849902</v>
+        <v>1381.846305261832</v>
       </c>
       <c r="F216">
-        <v>1580</v>
+        <v>1200</v>
       </c>
       <c r="G216">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>814</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C217">
-        <v>792.54793565259968</v>
+        <v>1893.1900084541751</v>
       </c>
       <c r="D217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E217">
-        <v>659.83242404740304</v>
+        <v>1630.987221715041</v>
       </c>
       <c r="F217">
-        <v>1580</v>
+        <v>1200</v>
       </c>
       <c r="G217">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>814</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>244.3314574242155</v>
+        <v>679.16699969917488</v>
       </c>
       <c r="D218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E218">
-        <v>2.6301071774214511</v>
+        <v>1.116260290145874</v>
       </c>
       <c r="F218">
-        <v>1460</v>
+        <v>559</v>
       </c>
       <c r="G218">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C219">
-        <v>244.3314574242155</v>
+        <v>679.16699969917488</v>
       </c>
       <c r="D219" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E219">
-        <v>50.198545285500593</v>
+        <v>305.52074722200632</v>
       </c>
       <c r="F219">
-        <v>1460</v>
+        <v>559</v>
       </c>
       <c r="G219">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C220">
-        <v>244.3314574242155</v>
+        <v>679.16699969917488</v>
       </c>
       <c r="D220" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E220">
-        <v>71.477037068456411</v>
+        <v>429.60116377845412</v>
       </c>
       <c r="F220">
-        <v>1460</v>
+        <v>559</v>
       </c>
       <c r="G220">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C221">
-        <v>244.3314574242155</v>
+        <v>679.16699969917488</v>
       </c>
       <c r="D221" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E221">
-        <v>96.148325394373387</v>
+        <v>516.61367755010724</v>
       </c>
       <c r="F221">
-        <v>1460</v>
+        <v>559</v>
       </c>
       <c r="G221">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C222">
-        <v>244.3314574242155</v>
+        <v>679.16699969917488</v>
       </c>
       <c r="D222" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E222">
-        <v>132.94868763528939</v>
+        <v>615.72341235354543</v>
       </c>
       <c r="F222">
-        <v>1460</v>
+        <v>559</v>
       </c>
       <c r="G222">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C223">
-        <v>244.3314574242155</v>
+        <v>679.16699969917488</v>
       </c>
       <c r="D223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E223">
-        <v>163.69499188654299</v>
+        <v>660.31106961145997</v>
       </c>
       <c r="F223">
-        <v>1460</v>
+        <v>559</v>
       </c>
       <c r="G223">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C224">
-        <v>744.78278447460093</v>
+        <v>187.46205369687479</v>
       </c>
       <c r="D224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E224">
-        <v>3</v>
+        <v>0.93894168362021446</v>
       </c>
       <c r="F224">
-        <v>1449</v>
+        <v>1030</v>
       </c>
       <c r="G224">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>984</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C225">
-        <v>744.78278447460093</v>
+        <v>187.46205369687479</v>
       </c>
       <c r="D225" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E225">
-        <v>24.185031354427341</v>
+        <v>183.9687678813934</v>
       </c>
       <c r="F225">
-        <v>1449</v>
+        <v>1030</v>
       </c>
       <c r="G225">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>984</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C226">
-        <v>744.78278447460093</v>
+        <v>187.46205369687479</v>
       </c>
       <c r="D226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E226">
-        <v>38.07200688123703</v>
+        <v>186.9687678813934</v>
       </c>
       <c r="F226">
-        <v>1449</v>
+        <v>1030</v>
       </c>
       <c r="G226">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>984</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C227">
-        <v>744.78278447460093</v>
+        <v>187.46205369687479</v>
       </c>
       <c r="D227" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E227">
-        <v>93.670437076129019</v>
+        <v>186.9687678813934</v>
       </c>
       <c r="F227">
-        <v>1449</v>
+        <v>1030</v>
       </c>
       <c r="G227">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>984</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C228">
-        <v>744.78278447460093</v>
+        <v>187.46205369687479</v>
       </c>
       <c r="D228" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E228">
-        <v>176.89296030905101</v>
+        <v>186.9687678813934</v>
       </c>
       <c r="F228">
-        <v>1449</v>
+        <v>1030</v>
       </c>
       <c r="G228">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>984</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C229">
-        <v>744.78278447460093</v>
+        <v>187.46205369687479</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E229">
-        <v>275.63847938086838</v>
+        <v>186.9687678813934</v>
       </c>
       <c r="F229">
-        <v>1449</v>
+        <v>1030</v>
       </c>
       <c r="G229">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>984</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C230">
-        <v>347.82583202661732</v>
+        <v>1559.821408411535</v>
       </c>
       <c r="D230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E230">
-        <v>0.1723190825432539</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="G230">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>492</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C231">
-        <v>347.82583202661732</v>
+        <v>1559.821408411535</v>
       </c>
       <c r="D231" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E231">
-        <v>0.1723190825432539</v>
+        <v>2.1673920098692179</v>
       </c>
       <c r="F231">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="G231">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C232">
-        <v>347.82583202661732</v>
+        <v>1559.821408411535</v>
       </c>
       <c r="D232" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E232">
-        <v>127.3202848117799</v>
+        <v>8.2543947771191597</v>
       </c>
       <c r="F232">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="G232">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>492</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C233">
-        <v>347.82583202661732</v>
+        <v>1559.821408411535</v>
       </c>
       <c r="D233" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E233">
-        <v>161.05211394838989</v>
+        <v>99.079846501350403</v>
       </c>
       <c r="F233">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="G233">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C234">
-        <v>347.82583202661732</v>
+        <v>1559.821408411535</v>
       </c>
       <c r="D234" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E234">
-        <v>242.2946354011074</v>
+        <v>552.45670287264511</v>
       </c>
       <c r="F234">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="G234">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C235">
-        <v>347.82583202661732</v>
+        <v>1559.821408411535</v>
       </c>
       <c r="D235" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E235">
-        <v>282.40312372241169</v>
+        <v>772.83791504381225</v>
       </c>
       <c r="F235">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="G235">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>492</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
-        <v>47</v>
+      <c r="A236" t="s">
+        <v>19</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C236">
-        <v>853.11201027896698</v>
+        <v>740.83380404834463</v>
       </c>
       <c r="D236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F236">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="G236">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
-        <v>47</v>
+      <c r="A237" t="s">
+        <v>19</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C237">
-        <v>853.11201027896698</v>
+        <v>740.83380404834463</v>
       </c>
       <c r="D237" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E237">
-        <v>0.44282425194978708</v>
+        <v>34</v>
       </c>
       <c r="F237">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="G237">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
-        <v>47</v>
+      <c r="A238" t="s">
+        <v>19</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C238">
-        <v>853.11201027896698</v>
+        <v>740.83380404834463</v>
       </c>
       <c r="D238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E238">
-        <v>198.03987419232729</v>
+        <v>50.272376716136932</v>
       </c>
       <c r="F238">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="G238">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
-        <v>47</v>
+      <c r="A239" t="s">
+        <v>19</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C239">
-        <v>853.11201027896698</v>
+        <v>740.83380404834463</v>
       </c>
       <c r="D239" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E239">
-        <v>440.56334311375389</v>
+        <v>123.3965536616743</v>
       </c>
       <c r="F239">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="G239">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
-        <v>47</v>
+      <c r="A240" t="s">
+        <v>19</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C240">
-        <v>853.11201027896698</v>
+        <v>740.83380404834463</v>
       </c>
       <c r="D240" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E240">
-        <v>617.19978495547548</v>
+        <v>250.87237953580919</v>
       </c>
       <c r="F240">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="G240">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
-        <v>47</v>
+      <c r="A241" t="s">
+        <v>19</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C241">
-        <v>853.11201027896698</v>
+        <v>740.83380404834463</v>
       </c>
       <c r="D241" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E241">
-        <v>760.82932903477922</v>
+        <v>369.74956137873232</v>
       </c>
       <c r="F241">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="G241">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>49</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
       </c>
       <c r="C242">
-        <v>226.04613882758579</v>
+        <v>42.232854124838077</v>
       </c>
       <c r="D242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E242">
-        <v>0.34702904894948011</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1486</v>
+        <v>1420</v>
       </c>
       <c r="G242">
         <f t="shared" si="3"/>
-        <v>528</v>
+        <v>594</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>49</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
       </c>
       <c r="C243">
-        <v>226.04613882758579</v>
+        <v>42.232854124838077</v>
       </c>
       <c r="D243" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E243">
-        <v>0.34702904894948011</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1623</v>
+        <v>1420</v>
       </c>
       <c r="G243">
         <f t="shared" si="3"/>
-        <v>391</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>49</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
       </c>
       <c r="C244">
-        <v>226.04613882758579</v>
+        <v>42.232854124838077</v>
       </c>
       <c r="D244" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E244">
-        <v>0.46051602438092232</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1623</v>
+        <v>1420</v>
       </c>
       <c r="G244">
         <f t="shared" si="3"/>
-        <v>391</v>
+        <v>594</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>49</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B245" t="s">
+        <v>19</v>
       </c>
       <c r="C245">
-        <v>226.04613882758579</v>
+        <v>42.232854124838077</v>
       </c>
       <c r="D245" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E245">
-        <v>0.46051602438092232</v>
+        <v>0.37538674473762512</v>
       </c>
       <c r="F245">
-        <v>1623</v>
+        <v>1420</v>
       </c>
       <c r="G245">
         <f t="shared" si="3"/>
-        <v>391</v>
+        <v>594</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>49</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
       </c>
       <c r="C246">
-        <v>226.04613882758579</v>
+        <v>42.232854124838077</v>
       </c>
       <c r="D246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E246">
-        <v>103.15156373754139</v>
+        <v>3.5282504539936781</v>
       </c>
       <c r="F246">
-        <v>1623</v>
+        <v>1420</v>
       </c>
       <c r="G246">
         <f t="shared" si="3"/>
-        <v>391</v>
+        <v>594</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>49</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B247" t="s">
+        <v>19</v>
       </c>
       <c r="C247">
-        <v>226.04613882758579</v>
+        <v>42.232854124838077</v>
       </c>
       <c r="D247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E247">
-        <v>178.8134994497523</v>
+        <v>5.4806795101612806</v>
       </c>
       <c r="F247">
-        <v>1623</v>
+        <v>1420</v>
       </c>
       <c r="G247">
         <f t="shared" si="3"/>
-        <v>391</v>
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C248">
-        <v>2047.1692596965031</v>
+        <v>2520.2303367074128</v>
       </c>
       <c r="D248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E248">
-        <v>0.21240831911563871</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>421</v>
+        <v>1662</v>
       </c>
       <c r="G248">
         <f t="shared" si="3"/>
-        <v>1593</v>
+        <v>352</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B249" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C249">
-        <v>2047.1692596965031</v>
+        <v>2520.2303367074128</v>
       </c>
       <c r="D249" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E249">
-        <v>0.21240831911563871</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>421</v>
+        <v>1662</v>
       </c>
       <c r="G249">
         <f t="shared" si="3"/>
-        <v>1593</v>
+        <v>352</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B250" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C250">
-        <v>2047.1692596965031</v>
+        <v>2520.2303367074128</v>
       </c>
       <c r="D250" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E250">
-        <v>0.21240831911563871</v>
+        <v>26.30158931016922</v>
       </c>
       <c r="F250">
-        <v>421</v>
+        <v>1662</v>
       </c>
       <c r="G250">
         <f t="shared" si="3"/>
-        <v>1593</v>
+        <v>352</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B251" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C251">
-        <v>2047.1692596965031</v>
+        <v>2520.2303367074128</v>
       </c>
       <c r="D251" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E251">
-        <v>82.866657584905624</v>
+        <v>138.14644384384161</v>
       </c>
       <c r="F251">
-        <v>421</v>
+        <v>1662</v>
       </c>
       <c r="G251">
         <f t="shared" si="3"/>
-        <v>1593</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B252" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C252">
-        <v>2047.1692596965031</v>
+        <v>2520.2303367074128</v>
       </c>
       <c r="D252" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E252">
-        <v>470.1305882409215</v>
+        <v>413.65307537675841</v>
       </c>
       <c r="F252">
-        <v>421</v>
+        <v>1662</v>
       </c>
       <c r="G252">
         <f t="shared" si="3"/>
-        <v>1593</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B253" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C253">
-        <v>2047.1692596965031</v>
+        <v>2520.2303367074128</v>
       </c>
       <c r="D253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E253">
-        <v>897.98145566880703</v>
+        <v>814.33780658827163</v>
       </c>
       <c r="F253">
-        <v>421</v>
+        <v>1662</v>
       </c>
       <c r="G253">
         <f t="shared" si="3"/>
-        <v>1593</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C254">
-        <v>399.7107157093572</v>
+        <v>1872.9543217546579</v>
       </c>
       <c r="D254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G254">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C255">
-        <v>399.7107157093572</v>
+        <v>1872.9543217546579</v>
       </c>
       <c r="D255" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E255">
-        <v>19.152781474404041</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G255">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C256">
-        <v>399.7107157093572</v>
+        <v>1872.9543217546579</v>
       </c>
       <c r="D256" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E256">
-        <v>29.15830300189555</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G256">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C257">
-        <v>399.7107157093572</v>
+        <v>1872.9543217546579</v>
       </c>
       <c r="D257" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E257">
-        <v>79.66335541754961</v>
+        <v>2.1467250734567642</v>
       </c>
       <c r="F257">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G257">
         <f t="shared" si="3"/>
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C258">
-        <v>399.7107157093572</v>
+        <v>1872.9543217546579</v>
       </c>
       <c r="D258" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E258">
-        <v>141.7257186952047</v>
+        <v>101.25110101886089</v>
       </c>
       <c r="F258">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G258">
         <f t="shared" ref="G258:G321" si="4">2014-F258</f>
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C259">
-        <v>399.7107157093572</v>
+        <v>1872.9543217546579</v>
       </c>
       <c r="D259" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E259">
-        <v>201.5225686756894</v>
+        <v>782.08436560926202</v>
       </c>
       <c r="F259">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G259">
         <f t="shared" si="4"/>
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G259">
-    <sortCondition ref="A1:A259"/>
+    <sortCondition ref="B160:B259"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
